--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3080475.781051093</v>
+        <v>3197887.222126165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7002695.503828036</v>
+        <v>5736895.963613645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2105066.808676569</v>
+        <v>1169739.126259461</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5828938.919570768</v>
+        <v>6083345.258778653</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -665,13 +667,13 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>132.3848771897998</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -722,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.4332730216888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>70.90884974000093</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -874,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>126.3886630007334</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -908,7 +910,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>54.40512641943953</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>101.6302174766832</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>60.82399730831989</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>71.31157381942172</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1142,16 +1144,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>37.96747314235642</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>193.4795097704822</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.77201408958031</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>39.10000693786884</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>8.946328504820286</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170.9630396383575</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>44.65330832841629</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1667,13 +1669,13 @@
         <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
         <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.40379618325175</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>75.60603984991846</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1819,13 +1821,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>186.1999057571244</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
@@ -1853,7 +1855,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397581</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
         <v>190.4854774862718</v>
@@ -2002,22 +2004,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>96.30873100144034</v>
       </c>
       <c r="E19" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501634</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>101.6602091091131</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198764</v>
@@ -2068,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T20" t="n">
         <v>190.4854774862718</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>126.2210835114341</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>105.6553553088219</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2299,10 +2301,10 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2333,7 +2335,7 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
         <v>55.98930332975957</v>
@@ -2476,25 +2478,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5549647575665</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>14.01643745131475</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>193.7301984309778</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>388.9699858089391</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>292.1283969414022</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862723</v>
+        <v>204.3134037554528</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>238.818871365928</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.34798075065186</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>140.4836132926781</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D29" t="n">
-        <v>370.9203488815321</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>187.1069038334007</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995114</v>
+        <v>401.1490924686923</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397582</v>
+        <v>388.9699858089391</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722213</v>
+        <v>292.1283969414022</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975964</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>204.3134037554528</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967471</v>
+        <v>238.818871365928</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905462</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298452</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263991</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950529</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T31" t="n">
-        <v>207.654309906727</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V31" t="n">
-        <v>160.7852429199731</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>190.6898575773616</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.989399898785</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815321</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995114</v>
+        <v>401.1490924686923</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397582</v>
+        <v>251.368321370165</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722213</v>
+        <v>292.1283969414022</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975964</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>204.3134037554528</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967471</v>
+        <v>238.818871365928</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905462</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298452</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263991</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950529</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="33">
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.4460337501826</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501641</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.989399898785</v>
+        <v>7.066081810624109</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D35" t="n">
-        <v>370.9203488815321</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995114</v>
+        <v>401.1490924686923</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397582</v>
+        <v>181.5510917712245</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722213</v>
+        <v>292.1283969414022</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975963</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>204.3134037554528</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967471</v>
+        <v>238.818871365928</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905462</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298452</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263991</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950529</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>85.65848059317143</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>142.2286827731621</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501641</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125509</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>34.98909291040901</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D38" t="n">
-        <v>370.9203488815321</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995114</v>
+        <v>401.1490924686923</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397582</v>
+        <v>388.9699858089391</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722213</v>
+        <v>84.70950290368759</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975963</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>204.3134037554528</v>
       </c>
       <c r="U38" t="n">
-        <v>224.9909450967471</v>
+        <v>238.818871365928</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905462</v>
+        <v>330.6681636597271</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298452</v>
+        <v>364.2516823990261</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263991</v>
+        <v>380.96594839558</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950529</v>
+        <v>381.2562908642338</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>131.1258909698511</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501641</v>
+        <v>68.74897568419732</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759079</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.7935242936108</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>376.5244030535246</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>370.9203488815321</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>336.2417830380783</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>375.1420595397582</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975963</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>190.4854774862718</v>
+        <v>174.1372571702753</v>
       </c>
       <c r="U41" t="n">
-        <v>224.9909450967471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>316.8402373905462</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>350.4237561298452</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>367.1380221263991</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.323767603766</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>139.8834969875627</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540258</v>
+        <v>2.127201442763817</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>85.68364371037916</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.0289087125509</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>170.5600904548325</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.989399898785</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>373.8316553010462</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.56440036154436</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4037,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>223.4899753452292</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.6426643811657</v>
+        <v>687.3747545467722</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348398</v>
+        <v>681.2905679004464</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>680.8670420339109</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>670.5672305912117</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4331,25 +4333,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1516.210242763442</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>1132.44994189861</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X2" t="n">
-        <v>731.806544067563</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="Y2" t="n">
-        <v>576.8234400052511</v>
+        <v>1097.595934211262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>649.4872931662312</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="C4" t="n">
-        <v>649.4872931662312</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="D4" t="n">
-        <v>489.9926484891412</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E4" t="n">
-        <v>489.9926484891412</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997325</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>777.1526093285881</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>777.1526093285881</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X4" t="n">
-        <v>649.4872931662312</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="Y4" t="n">
-        <v>649.4872931662312</v>
+        <v>588.5395825927103</v>
       </c>
     </row>
     <row r="5">
@@ -4544,16 +4546,16 @@
         <v>484.2909016982387</v>
       </c>
       <c r="C5" t="n">
-        <v>478.2067150519129</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4565,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
         <v>2088.254281480102</v>
@@ -4601,16 +4603,16 @@
         <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1675.812049070113</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.051748205281</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>891.408350374234</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y5" t="n">
-        <v>490.4716773223241</v>
+        <v>894.5120813627282</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M6" t="n">
-        <v>508.1659581184966</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>547.7107188509281</v>
+        <v>278.4281042659014</v>
       </c>
       <c r="C7" t="n">
-        <v>486.272337731413</v>
+        <v>278.4281042659014</v>
       </c>
       <c r="D7" t="n">
-        <v>486.272337731413</v>
+        <v>278.4281042659014</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V7" t="n">
-        <v>1014.480089736098</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W7" t="n">
-        <v>735.4104252449724</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="X7" t="n">
-        <v>735.4104252449724</v>
+        <v>690.8635092711811</v>
       </c>
       <c r="Y7" t="n">
-        <v>735.4104252449724</v>
+        <v>466.1278106599458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591565793852</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C8" t="n">
-        <v>875.4669751071218</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
-        <v>875.0434492405864</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.415739248985</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.772341417937</v>
+        <v>894.5120813627283</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.772341417937</v>
+        <v>894.5120813627283</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>52.35970185319792</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O9" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
         <v>2058.694762117472</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319.0219466569564</v>
+        <v>409.1714896368677</v>
       </c>
       <c r="C10" t="n">
-        <v>319.0219466569564</v>
+        <v>238.0781171985842</v>
       </c>
       <c r="D10" t="n">
-        <v>319.0219466569564</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.365834796576</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V10" t="n">
-        <v>1248.870878293678</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W10" t="n">
-        <v>969.8012138025526</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X10" t="n">
-        <v>731.4573516622361</v>
+        <v>821.6068946421474</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.7216530510008</v>
+        <v>596.8711960309121</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1690.728918658513</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1280.604327971783</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>876.1403980648433</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>867.1037026054289</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>867.1037026054289</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>458.3754184982611</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
-        <v>147.466921125979</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>61.11515844305219</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>61.11515844305219</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>61.11515844305219</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>773.7065582552902</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1530.006643988061</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2283.187660626679</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2926.818517043784</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2926.818517043784</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3055.757922152609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2920.47684694671</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>2698.270362893569</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>2441.209871153079</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>2091.37231648956</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>2091.37231648956</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>1690.728918658513</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1690.728918658513</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1688.099568188644</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>1554.10449693759</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>1437.207339156982</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>1316.71452314931</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>1207.754643331815</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>1100.764530646153</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>1030.017317681869</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>1009.268726302109</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>1202.081583864743</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>1202.081583864743</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>1202.081583864743</v>
+        <v>705.4904009953962</v>
       </c>
       <c r="M12" t="n">
-        <v>1958.381669597513</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N12" t="n">
-        <v>2714.681755330284</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O12" t="n">
-        <v>2714.681755330284</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>3055.757922152609</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>3055.757922152609</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>3055.757922152609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2947.767912266918</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>2788.426048453926</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>2591.075237592145</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>2377.363710585179</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>2164.130542321508</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1987.8045604604</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>1828.40260082423</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2334.715704047813</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="C13" t="n">
-        <v>2163.62233160953</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="D13" t="n">
-        <v>2004.12768693244</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="E13" t="n">
-        <v>1843.216871800759</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F13" t="n">
-        <v>1843.216871800759</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G13" t="n">
-        <v>1675.966480726303</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>1526.359025531759</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
-        <v>1526.359025531759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>1540.44157493697</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>1694.993902659208</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>1954.891002939269</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>2244.155059379762</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>2524.993841774012</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>2784.554452100486</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
-        <v>2990.229892350098</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>3055.757922152609</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>2970.485203828009</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>2970.485203828009</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>2970.485203828009</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>2970.485203828009</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>2970.485203828009</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W13" t="n">
-        <v>2970.485203828009</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X13" t="n">
-        <v>2732.141341687693</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y13" t="n">
-        <v>2507.405643076457</v>
+        <v>479.5419440130794</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.139387136495</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1255.81170728445</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>881.1446882121957</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
-        <v>496.6013835637772</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>496.6013835637772</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>117.6700102912942</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>117.6700102912942</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
-        <v>61.11515844305219</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>61.11515844305219</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>61.11515844305219</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>61.11515844305219</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>817.415244175823</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1570.596260814441</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2205.440217438166</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2734.596915357317</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3055.757922152609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2950.273757781395</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>2950.273757781395</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>2723.01017687559</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>2402.969533046755</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>2402.969533046755</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>2032.123046050393</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.5636559663</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.9460003295865</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>605.9509290785322</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>489.0537712979246</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>368.5609552902527</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>259.6010754727573</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>152.610962787096</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>81.86374982281201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>61.11515844305219</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>61.11515844305219</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>61.11515844305219</v>
+        <v>355.6459363114127</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11515844305219</v>
+        <v>355.6459363114127</v>
       </c>
       <c r="M15" t="n">
-        <v>789.5983760722514</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1545.898461805022</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1545.898461805022</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.604354293552</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.604354293552</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.614344407861</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1840.272480594869</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.921669733088</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1429.210142726122</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.97697446245</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.650992601343</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>880.2490329651731</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.7567286043991</v>
+        <v>375.9731143336102</v>
       </c>
       <c r="C16" t="n">
-        <v>669.4602670008004</v>
+        <v>375.9731143336102</v>
       </c>
       <c r="D16" t="n">
-        <v>539.7625331583953</v>
+        <v>375.9731143336102</v>
       </c>
       <c r="E16" t="n">
-        <v>539.7625331583953</v>
+        <v>375.9731143336102</v>
       </c>
       <c r="F16" t="n">
-        <v>404.9283181036714</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G16" t="n">
-        <v>267.4748378638997</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>147.6642935040412</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
-        <v>61.11515844305219</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>104.4016601573373</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>288.1579401886499</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>577.2589927777851</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>895.727001527353</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1205.769736230678</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.534298866227</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1729.413691424914</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1824.145673536499</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1768.669866046584</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1612.075008761179</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1402.323180572566</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1402.323180572566</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>1402.323180572566</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>1214.242467686581</v>
+        <v>937.361648975152</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.69551638095</v>
+        <v>728.8146976695202</v>
       </c>
       <c r="Y16" t="n">
-        <v>810.7567286043991</v>
+        <v>533.8759098929697</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
@@ -5546,19 +5548,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>213.3947382540484</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>887.4500370879764</v>
+        <v>321.6391484537198</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1535754843777</v>
+        <v>321.6391484537198</v>
       </c>
       <c r="D19" t="n">
-        <v>616.4558416419726</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E19" t="n">
-        <v>485.3419373449769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>350.507722290253</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1698.111325385959</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1698.111325385959</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1698.111325385959</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>1448.838571729518</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X19" t="n">
-        <v>1240.291620423887</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y19" t="n">
-        <v>1045.352832647336</v>
+        <v>479.5419440130794</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5765,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5777,7 +5779,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T20" t="n">
         <v>4364.291146941468</v>
@@ -5832,19 +5834,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="M21" t="n">
-        <v>1392.027034650488</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N21" t="n">
-        <v>1392.027034650488</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O21" t="n">
-        <v>1392.027034650488</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
         <v>1760.328909494509</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>585.724942522223</v>
+        <v>365.6540635912171</v>
       </c>
       <c r="C22" t="n">
-        <v>585.724942522223</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D22" t="n">
-        <v>479.0023614022009</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E22" t="n">
-        <v>347.8884571052052</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5938,22 +5940,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.203548008749</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1391.202311389558</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>1147.113477163765</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W22" t="n">
-        <v>1147.113477163765</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X22" t="n">
-        <v>938.5665258581331</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.6277380815826</v>
+        <v>493.1501075421606</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489456</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5987,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6002,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6026,10 +6028,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>626.3430311245193</v>
+        <v>321.0892943552104</v>
       </c>
       <c r="C25" t="n">
-        <v>626.3430311245193</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D25" t="n">
-        <v>496.6452972821141</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E25" t="n">
-        <v>365.5313929851185</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303946</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>1431.820399991854</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.731565766061</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.731565766061</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X25" t="n">
-        <v>979.1846144604293</v>
+        <v>673.9308776911205</v>
       </c>
       <c r="Y25" t="n">
-        <v>784.2458266838788</v>
+        <v>478.99208991457</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.613014133291</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>851.7443162252509</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>458.845340660666</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>163.7661518309668</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="27">
@@ -6315,16 +6317,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.524090260294</v>
+        <v>393.5892681754211</v>
       </c>
       <c r="C28" t="n">
-        <v>660.2276286566953</v>
+        <v>238.3252042797205</v>
       </c>
       <c r="D28" t="n">
-        <v>530.5298948142902</v>
+        <v>238.3252042797205</v>
       </c>
       <c r="E28" t="n">
-        <v>399.4159905172945</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>399.4159905172945</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>261.9625102775228</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672484</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.27421278407</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.27421278407</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T28" t="n">
-        <v>1856.27421278407</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U28" t="n">
-        <v>1856.27421278407</v>
+        <v>1016.062897980624</v>
       </c>
       <c r="V28" t="n">
-        <v>1612.185378558277</v>
+        <v>758.0064614627288</v>
       </c>
       <c r="W28" t="n">
-        <v>1362.912624901836</v>
+        <v>758.0064614627288</v>
       </c>
       <c r="X28" t="n">
-        <v>1154.365673596204</v>
+        <v>535.491907864995</v>
       </c>
       <c r="Y28" t="n">
-        <v>959.4268858196535</v>
+        <v>393.5892681754211</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1256.945419728981</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489451</v>
+        <v>851.7443162252509</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>458.845340660666</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>163.7661518309668</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159926</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.29114694147</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035666</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206831</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176685</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.3533189548409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362204</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253555</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749234</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.522384595456</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U31" t="n">
-        <v>1393.521147976265</v>
+        <v>1016.062897980624</v>
       </c>
       <c r="V31" t="n">
-        <v>1231.111811693464</v>
+        <v>758.0064614627288</v>
       </c>
       <c r="W31" t="n">
-        <v>981.8390580370233</v>
+        <v>494.766105514186</v>
       </c>
       <c r="X31" t="n">
-        <v>773.2921067313914</v>
+        <v>302.1500877592753</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.3533189548409</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489451</v>
+        <v>642.2302818437211</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159926</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.29114694147</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035666</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206831</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176685</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>637.9417588857131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>496.6452972821144</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>496.6452972821144</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>365.5313929851186</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6856,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362204</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253555</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749234</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672484</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.27421278407</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U34" t="n">
-        <v>1434.451719820136</v>
+        <v>1016.062897980624</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.362885594343</v>
+        <v>758.0064614627288</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.362885594343</v>
+        <v>494.766105514186</v>
       </c>
       <c r="X34" t="n">
-        <v>981.8159342887107</v>
+        <v>272.2515519164522</v>
       </c>
       <c r="Y34" t="n">
-        <v>786.8771465121602</v>
+        <v>265.1140955420844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489451</v>
+        <v>642.2302818437211</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764621</v>
+        <v>458.845340660666</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388649</v>
+        <v>163.7661518309668</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674186</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
-        <v>1598.180070079657</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M35" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127133</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046285</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841577</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531142</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159926</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.29114694147</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176684</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180321</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567176</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316121</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535514</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.141485527842</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710347</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024685</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.444280060402</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.695688680642</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.695688680642</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.695688680642</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>3276.78386059993</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M36" t="n">
-        <v>3788.526792419524</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N36" t="n">
-        <v>4662.184884531142</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.184884531142</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.184884531142</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.184884531142</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.184884531142</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.19487464545</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832458</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970677</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963711</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700039</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.231522838932</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.829563202762</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.3922132615235</v>
+        <v>236.9090338251299</v>
       </c>
       <c r="C37" t="n">
-        <v>697.8684954906432</v>
+        <v>236.9090338251299</v>
       </c>
       <c r="D37" t="n">
-        <v>568.170761648238</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24369769062284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253555</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749234</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672484</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.27421278407</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.203548008749</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.203548008749</v>
+        <v>1016.062897980624</v>
       </c>
       <c r="V37" t="n">
-        <v>1400.114713782956</v>
+        <v>758.0064614627288</v>
       </c>
       <c r="W37" t="n">
-        <v>1150.841960126515</v>
+        <v>494.766105514186</v>
       </c>
       <c r="X37" t="n">
-        <v>942.2950088208831</v>
+        <v>272.2515519164522</v>
       </c>
       <c r="Y37" t="n">
-        <v>942.2950088208831</v>
+        <v>236.9090338251299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2228.872195796475</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1834.576913652328</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1445.942292287971</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1047.431385347451</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489452</v>
+        <v>642.2302818437211</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764621</v>
+        <v>249.3313062791361</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>163.7661518309668</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7193,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159926</v>
+        <v>4542.733117867823</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4336.355942357265</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4095.124759159358</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3761.116513038422</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3393.185520716173</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3008.371431427709</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2623.264066918382</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7248,31 +7250,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>754.3318696099111</v>
+        <v>355.6459363114127</v>
       </c>
       <c r="M39" t="n">
-        <v>754.3318696099111</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>445.7409521033316</v>
+        <v>380.958156505365</v>
       </c>
       <c r="C40" t="n">
-        <v>445.7409521033316</v>
+        <v>225.6940926096643</v>
       </c>
       <c r="D40" t="n">
-        <v>445.7409521033316</v>
+        <v>225.6940926096643</v>
       </c>
       <c r="E40" t="n">
-        <v>314.6270478063358</v>
+        <v>225.6940926096643</v>
       </c>
       <c r="F40" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362204</v>
+        <v>292.9071854232422</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253555</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749234</v>
+        <v>873.0969527489669</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1444.524956074862</v>
       </c>
       <c r="P40" t="n">
-        <v>1761.542230672484</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q40" t="n">
-        <v>1856.27421278407</v>
+        <v>1746.757036732156</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1677.313626950139</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1506.751167372632</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1283.031736891917</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1024.975300374022</v>
       </c>
       <c r="W40" t="n">
-        <v>897.8407235073238</v>
+        <v>761.7349444254789</v>
       </c>
       <c r="X40" t="n">
-        <v>689.2937722016919</v>
+        <v>761.7349444254789</v>
       </c>
       <c r="Y40" t="n">
-        <v>603.6437476626911</v>
+        <v>552.8285543568265</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1591.234247173005</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1210.90656732096</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>836.2395482487049</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>496.6013835637773</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>496.6013835637773</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6700102912943</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6700102912943</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>61.11515844305221</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>61.11515844305221</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>61.11515844305221</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>61.11515844305221</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>817.4152441758232</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1570.596260814441</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2214.227117231546</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2743.383815150698</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3015.201276463045</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3055.75792215261</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3055.75792215261</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2863.348348934154</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U41" t="n">
-        <v>2636.084768028349</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V41" t="n">
-        <v>2316.044124199514</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W41" t="n">
-        <v>1962.080734169367</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X41" t="n">
-        <v>1591.234247173005</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>1591.234247173005</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>739.9460003295867</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>605.9509290785323</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>489.0537712979248</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>368.5609552902528</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>259.6010754727573</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>152.610962787096</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>81.86374982281204</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>61.11515844305221</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>253.9280160056854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>253.9280160056854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>253.9280160056854</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="M42" t="n">
-        <v>253.9280160056854</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N42" t="n">
-        <v>1010.228101738456</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O42" t="n">
-        <v>1166.494477758409</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P42" t="n">
-        <v>1728.200370246939</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2078.044834930922</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1999.614344407861</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1840.272480594869</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1642.921669733088</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1429.210142726122</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1215.97697446245</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.650992601343</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>880.2490329651733</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>684.6066083017649</v>
+        <v>4063.35771140577</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3101466981662</v>
+        <v>3892.264338967486</v>
       </c>
       <c r="D43" t="n">
-        <v>413.612412855761</v>
+        <v>3732.769694290396</v>
       </c>
       <c r="E43" t="n">
-        <v>282.4985085587653</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F43" t="n">
-        <v>147.6642935040413</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6642935040413</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>147.6642935040413</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>61.11515844305221</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>104.4016601573373</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>288.1579401886498</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>577.2589927777849</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>895.7270015273527</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1205.769736230678</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1494.534298866226</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1729.413691424913</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1824.145673536499</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1824.145673536499</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1667.550816251094</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T43" t="n">
-        <v>1667.550816251094</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.550816251094</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.267896599748</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.995142943307</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="X43" t="n">
-        <v>1037.448191637675</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.5094038611246</v>
+        <v>4251.057417799814</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>879.571065942114</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C44" t="n">
-        <v>879.571065942114</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D44" t="n">
-        <v>475.1071360351746</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E44" t="n">
-        <v>475.1071360351746</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>458.3754184982611</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>458.3754184982611</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>147.4669211259791</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>61.11515844305221</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>61.11515844305221</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>61.11515844305221</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>61.11515844305221</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>817.4152441758232</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1570.596260814441</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2214.227117231546</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2743.383815150698</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3015.201276463045</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3055.75792215261</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2920.476846946711</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2698.27036289357</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2441.20987115308</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.372316489561</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2091.372316489561</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.728918658514</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1289.792245606604</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.9460003295867</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>605.9509290785323</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>489.0537712979248</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>368.5609552902528</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>259.6010754727573</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>152.610962787096</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>81.86374982281204</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>61.11515844305221</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>61.11515844305221</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>516.9214147083509</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>516.9214147083509</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1273.221500441122</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>2029.521586173893</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O45" t="n">
-        <v>2107.604354293552</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.604354293552</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.614344407861</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1840.272480594869</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.921669733088</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1429.210142726122</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.97697446245</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.650992601343</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>880.2490329651733</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.11515844305221</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="C46" t="n">
-        <v>61.11515844305221</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="D46" t="n">
-        <v>61.11515844305221</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="E46" t="n">
-        <v>61.11515844305221</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="F46" t="n">
-        <v>61.11515844305221</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="G46" t="n">
-        <v>61.11515844305221</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H46" t="n">
-        <v>61.11515844305221</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>61.11515844305221</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>75.19770784826272</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>229.7500355705007</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>489.6471358505613</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>778.9111922910545</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.749974685305</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1319.310585011779</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.986025261391</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.514055063902</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1590.514055063902</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.514055063902</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T46" t="n">
-        <v>1359.948276200084</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U46" t="n">
-        <v>1077.150128746208</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="V46" t="n">
-        <v>803.2643836857299</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="W46" t="n">
-        <v>524.1947191946042</v>
+        <v>4054.565279729366</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8508570542875</v>
+        <v>3828.8178298857</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.11515844305221</v>
+        <v>3604.082131274464</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>265.3595799407153</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>173.5595280421012</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>333.9158139669643</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>62.07087134908675</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8541,13 +8543,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>392.2643757374379</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>857.2297049951978</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.2756277413997</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>479.785075065536</v>
       </c>
       <c r="M12" t="n">
-        <v>821.5037642765698</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>817.1328739319023</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>398.7810156314152</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>857.2297049951978</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>734.4462974679294</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -8948,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>126.1180868837635</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>793.4059177073055</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>817.1328739319023</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9024,10 +9026,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>177.4792112486527</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9480,10 +9482,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>177.4792112486527</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
@@ -9492,10 +9494,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>426.2817308048455</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>148.6536994294856</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>529.0025695961465</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>289.8876284449575</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>428.1366196128907</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389155</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>461.5915225678817</v>
       </c>
       <c r="M36" t="n">
-        <v>574.4763360814418</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,10 +10834,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>126.4068279099972</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>857.2297049951981</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>364.5968966338469</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>146.4882906253687</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>817.1328739319025</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>215.5963032625781</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>857.2297049951981</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11315,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>364.5968966338469</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>821.50376427657</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>817.1328739319025</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O45" t="n">
-        <v>136.6229619491507</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>401.250484823452</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.85966969174646</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>95.23018865914636</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.0245684118011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>57.8798330542582</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>60.58012036275201</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>32.09202550254075</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
         <v>85.6836437103791</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.9941007976138</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>30.10268409233186</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.74540119515918</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
         <v>85.6836437103791</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>37.91625949543257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.4450443412607</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>207.4188940377145</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.2286827731621</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H28" t="n">
-        <v>37.26445816560806</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>66.33371287528777</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>207.4188940377145</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>142.2286827731621</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540258</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>80.86270296356219</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29.59955048439483</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>137.6016644387741</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>69.81722959894054</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.877733853583408</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>142.2286827731621</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H34" t="n">
-        <v>118.61243891626</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037917</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>199.7512443573418</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>207.4188940377146</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
-        <v>54.22501639439129</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.989399898785</v>
+        <v>171.8282332575569</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>207.4188940377146</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>142.2286827731621</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>16.18790820350654</v>
       </c>
       <c r="G40" t="n">
-        <v>136.0789454373741</v>
+        <v>149.906871706555</v>
       </c>
       <c r="H40" t="n">
-        <v>118.61243891626</v>
+        <v>132.4403651854409</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>99.51156997956008</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>264.2991505221801</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.1958756051742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.6200261415066</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>44.45608856385604</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>387.3211661995114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3004706722213</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>45.84716204233442</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.4283645950529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>157.1745055375999</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501641</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>207.654309906727</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>250.4712242529991</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>71.0878554287028</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>400.2557075643049</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>12.47044817368422</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387314.5516197868</v>
+        <v>534572.6935092448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428994.8854590431</v>
+        <v>534572.6935092448</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534572.6935092447</v>
+        <v>534572.6935092448</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>534572.6935092447</v>
+        <v>534572.6935092449</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534572.6935092448</v>
+        <v>515034.6169046359</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534572.6935092447</v>
+        <v>515034.6169046359</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534572.6935092448</v>
+        <v>515034.616904636</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534572.6935092448</v>
+        <v>515034.6169046359</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534572.6935092449</v>
+        <v>515034.6169046359</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428994.8854590432</v>
+        <v>492892.3596699883</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387314.5516197869</v>
+        <v>492892.3596699886</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233362</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="C2" t="n">
+        <v>618953.0935233363</v>
+      </c>
+      <c r="D2" t="n">
         <v>618953.0935233365</v>
       </c>
-      <c r="D2" t="n">
-        <v>618953.0935233363</v>
-      </c>
       <c r="E2" t="n">
-        <v>432474.5060270869</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="F2" t="n">
-        <v>481969.9024612033</v>
+        <v>599827.8647507949</v>
       </c>
       <c r="G2" t="n">
-        <v>599827.8647507948</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="H2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507952</v>
       </c>
       <c r="I2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="J2" t="n">
-        <v>599827.8647507952</v>
+        <v>576626.3987828222</v>
       </c>
       <c r="K2" t="n">
-        <v>599827.8647507949</v>
+        <v>576626.3987828222</v>
       </c>
       <c r="L2" t="n">
-        <v>599827.8647507949</v>
+        <v>576626.3987828222</v>
       </c>
       <c r="M2" t="n">
-        <v>599827.8647507949</v>
+        <v>576626.3987828221</v>
       </c>
       <c r="N2" t="n">
-        <v>599827.8647507948</v>
+        <v>576626.3987828221</v>
       </c>
       <c r="O2" t="n">
-        <v>481969.9024612033</v>
+        <v>550332.4683166783</v>
       </c>
       <c r="P2" t="n">
-        <v>432474.506027087</v>
+        <v>550332.468316678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72218.82550617895</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
-        <v>23599.1533810704</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110074.3834958799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>149131.6131716206</v>
       </c>
       <c r="K3" t="n">
-        <v>23599.15338107035</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>60276.44431753796</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>23673.75191187922</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="F4" t="n">
-        <v>53483.78132874814</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="G4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="H4" t="n">
-        <v>60002.64896085222</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="I4" t="n">
         <v>60002.64896085224</v>
       </c>
       <c r="J4" t="n">
-        <v>60002.64896085223</v>
+        <v>46028.89720112253</v>
       </c>
       <c r="K4" t="n">
-        <v>60002.64896085217</v>
+        <v>46028.89720112252</v>
       </c>
       <c r="L4" t="n">
-        <v>60002.64896085217</v>
+        <v>46028.89720112253</v>
       </c>
       <c r="M4" t="n">
-        <v>60002.64896085218</v>
+        <v>46028.89720112253</v>
       </c>
       <c r="N4" t="n">
-        <v>60002.64896085217</v>
+        <v>46028.89720112253</v>
       </c>
       <c r="O4" t="n">
-        <v>53483.78132874808</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="P4" t="n">
-        <v>23673.75191187922</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>46447.52041671966</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>48927.46694871117</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26491,25 +26493,25 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686482</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686485</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686484</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="O5" t="n">
-        <v>48927.46694871118</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>46447.52041671967</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204196.4223197296</v>
+        <v>204196.4223197298</v>
       </c>
       <c r="C6" t="n">
+        <v>379151.9322128437</v>
+      </c>
+      <c r="D6" t="n">
         <v>379151.9322128438</v>
       </c>
-      <c r="D6" t="n">
-        <v>379151.9322128437</v>
-      </c>
       <c r="E6" t="n">
-        <v>290134.408192309</v>
+        <v>250751.1427325645</v>
       </c>
       <c r="F6" t="n">
-        <v>355959.5008026735</v>
+        <v>466480.0590130779</v>
       </c>
       <c r="G6" t="n">
-        <v>356405.6755171979</v>
+        <v>466480.059013078</v>
       </c>
       <c r="H6" t="n">
-        <v>466480.0590130779</v>
+        <v>466480.0590130782</v>
       </c>
       <c r="I6" t="n">
-        <v>466480.0590130779</v>
+        <v>466480.059013078</v>
       </c>
       <c r="J6" t="n">
-        <v>329885.2582071832</v>
+        <v>309283.231566738</v>
       </c>
       <c r="K6" t="n">
-        <v>442880.9056320076</v>
+        <v>458414.8447383586</v>
       </c>
       <c r="L6" t="n">
-        <v>466480.0590130779</v>
+        <v>458414.8447383586</v>
       </c>
       <c r="M6" t="n">
-        <v>406203.61469554</v>
+        <v>298056.3942376758</v>
       </c>
       <c r="N6" t="n">
-        <v>466480.0590130778</v>
+        <v>458414.8447383585</v>
       </c>
       <c r="O6" t="n">
-        <v>379558.654183744</v>
+        <v>449274.6385278217</v>
       </c>
       <c r="P6" t="n">
-        <v>362353.2336984881</v>
+        <v>449274.6385278213</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>29.498941726338</v>
@@ -26707,22 +26709,22 @@
         <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26796,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>763.9394805381523</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>763.9394805381523</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>763.9394805381526</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>763.9394805381526</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>241.8759101681267</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.6067405946325</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>241.8759101681272</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P2" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>241.8759101681267</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.6067405946325</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>284.4352307360494</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27430,10 +27432,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.494033299702</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86.99084849031814</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>109.5717605181801</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27673,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>291.9340526974446</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>295.2970888447077</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.5584414055808</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>87.99013316094199</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>341.9552247138267</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>203.1574540822548</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>129.1276841407388</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>232.0468806720044</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633794</v>
+        <v>15.67101545715702</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.49894172633794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>209.2450561298663</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>276.3515302285468</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>10.70163254908674</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>338.0047407346341</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>763.9394805381523</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.2418233422477</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>423.670551254687</v>
       </c>
       <c r="M12" t="n">
-        <v>763.9394805381523</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>763.9394805381523</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>344.5213806286115</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.22479737900053</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
-        <v>156.1134623456949</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>262.5223235152127</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>292.1859155964578</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>283.67553777197</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>262.1824346732062</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
-        <v>207.7529699491034</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.18992909344529</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>763.9394805381523</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>641.2565218421463</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35668,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.29230409914815</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>735.8416339688881</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>763.9394805381523</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>121.3646874378037</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>121.3646874378037</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
@@ -36212,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>372.0220958020417</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36373,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>474.7429345933427</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>29.89581283615755</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>171.7844778028519</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.0618456603421</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533847</v>
+        <v>29.89581283615755</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>171.7844778028519</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415506</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1744794983079</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995441</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754413</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978322</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P32" t="n">
         <v>534.50171506985</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>372.0220958020416</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533847</v>
+        <v>29.89581283615755</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>171.7844778028519</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415506</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983079</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995441</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754413</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978322</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656984</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="M36" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533847</v>
+        <v>29.89581283615755</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>171.7844778028519</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415506</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1744794983079</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995441</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754413</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978323</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,10 +37554,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>70.29230409914815</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533847</v>
+        <v>29.89581283615755</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>171.7844778028519</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415506</v>
+        <v>278.1933389723697</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1744794983079</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995441</v>
+        <v>277.8534501303632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754413</v>
+        <v>223.4239854062604</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978323</v>
+        <v>81.86094455060231</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>763.9394805381526</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>274.5630922346948</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>763.9394805381526</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>157.8448242625781</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72373910533847</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>185.6124040720329</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>292.0212652415506</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>321.6848573227958</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>313.1744794983079</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>291.6813763995441</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>237.2519116754413</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978323</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>763.9394805381526</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38035,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>274.5630922346948</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>763.9394805381526</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>763.9394805381526</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O45" t="n">
-        <v>78.87148294915076</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
